--- a/biology/Zoologie/Anetia_thirza/Anetia_thirza.xlsx
+++ b/biology/Zoologie/Anetia_thirza/Anetia_thirza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anetia thirza est une espèce d'insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Danainae et du genre Anetia.
 </t>
@@ -511,15 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Anetia thirza a été décrit par Carl Geyer en 1869 sous le nom initial d'Anelia thirza.
-Synonyme : Clothilda thirza Kirby, 1871[1].
-Noms vernaculaires
-Anetia thirza se nomme Cloud-forest Monarch en anglais[2].
-Sous-espèces
-Anetia thirza thirza (Synonyme : Argynnis euryaleKlug, 1836
-Anetia thirza insignis (Salvin, 1869)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia thirza a été décrit par Carl Geyer en 1869 sous le nom initial d'Anelia thirza.
+Synonyme : Clothilda thirza Kirby, 1871.
+</t>
         </is>
       </c>
     </row>
@@ -544,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anetia thirza est un grand papillon aux ailes antérieures à bord costal bossu, bord externe concave et bord interne droit. 
-Les ailes sont de couleur marron très clair avec aux antérieures, dans l'aire discale, des taches marron entourées ou demi-entourées de rose.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia thirza se nomme Cloud-forest Monarch en anglais.
 </t>
         </is>
       </c>
@@ -576,12 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anetia thirza thirza (Synonyme : Argynnis euryaleKlug, 1836
+Anetia thirza insignis (Salvin, 1869)</t>
         </is>
       </c>
     </row>
@@ -606,14 +628,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia thirza est un grand papillon aux ailes antérieures à bord costal bossu, bord externe concave et bord interne droit. 
+Les ailes sont de couleur marron très clair avec aux antérieures, dans l'aire discale, des taches marron entourées ou demi-entourées de rose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anetia_thirza</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anetia_thirza</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Anetia thirza est présent au Mexique, au Costa Rica et à Panama[1].
-Biotope
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia thirza est présent au Mexique, au Costa Rica et à Panama.
+</t>
         </is>
       </c>
     </row>
